--- a/ruls/tabs.xlsx
+++ b/ruls/tabs.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Действия" sheetId="1" r:id="rId1"/>
     <sheet name="Атрибуты" sheetId="2" r:id="rId2"/>
+    <sheet name="Заклинания" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E14" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Заголовок 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E14" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Заголовок 3">
   <autoFilter ref="A1:E14"/>
   <tableColumns count="5">
     <tableColumn id="1" name="действие"/>
@@ -209,7 +210,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C17" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Заголовок 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C17" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Заголовок 3">
   <autoFilter ref="A1:C17"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Тег атрибута"/>
@@ -584,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -634,4 +635,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>